--- a/biology/Zoologie/Acontias/Acontias.xlsx
+++ b/biology/Zoologie/Acontias/Acontias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acontias est un genre de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acontias est un genre de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique australe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique australe.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des reptiles terrestres vivant principalement dans des milieux sableux, de taille modeste bien que l'espèce Acontias plumbeus puisse approcher les 40 cm.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (31 mars 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (31 mars 2013) :
 Acontias aurantiacus (Peters, 1854)
 Acontias bicolor (Hewitt, 1929)
 Acontias breviceps Essex, 1925
@@ -624,7 +642,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cuvier, 1817 : Le règne animal distribué d’après son organisation, pour servir de base à l’histoire naturelle des animaux et d’introduction a l’anatomie comparée. Vol. 2. Les reptiles, les poissons, les mollusques et les annélides, Déterville, Paris.
 Daniels, Heideman, Hendricks &amp; Crandall 2006 : Taxonomic subdivisions within the fossorial skink subfamily Acontinae (Squamata: Scincidae) reconsidered: a multilocus perspective. Zoologica Scripta, vol. 35, no 4, p. 353-362.
